--- a/teaching/traditional_assets/database/data/turkey/turkey_oil_gas_production_and_exploration.xlsx
+++ b/teaching/traditional_assets/database/data/turkey/turkey_oil_gas_production_and_exploration.xlsx
@@ -645,10 +645,10 @@
         <v>-0.5178724673596291</v>
       </c>
       <c r="X2">
-        <v>0.1084646808147807</v>
+        <v>0.1066125655970851</v>
       </c>
       <c r="Y2">
-        <v>-0.6263371481744098</v>
+        <v>-0.6244850329567142</v>
       </c>
       <c r="Z2">
         <v>-0.8787341527244471</v>
@@ -657,10 +657,10 @@
         <v>-0.9025258748910204</v>
       </c>
       <c r="AB2">
-        <v>0.1063511401902123</v>
+        <v>0.1043415746605175</v>
       </c>
       <c r="AC2">
-        <v>-1.008877015081233</v>
+        <v>-1.006867449551538</v>
       </c>
       <c r="AD2">
         <v>2.485</v>
@@ -776,10 +776,10 @@
         <v>0.245662100456621</v>
       </c>
       <c r="X3">
-        <v>0.1051872572607345</v>
+        <v>0.1031707526885612</v>
       </c>
       <c r="Y3">
-        <v>0.1404748431958865</v>
+        <v>0.1424913477680597</v>
       </c>
       <c r="Z3">
         <v>-0.8702655900771199</v>
@@ -788,10 +788,10 @@
         <v>-0.3587909437548394</v>
       </c>
       <c r="AB3">
-        <v>0.105019724116257</v>
+        <v>0.1029910568715701</v>
       </c>
       <c r="AC3">
-        <v>-0.4638106678710964</v>
+        <v>-0.4617820006264095</v>
       </c>
       <c r="AD3">
         <v>1.83</v>
@@ -898,10 +898,10 @@
         <v>-1.281407035175879</v>
       </c>
       <c r="X4">
-        <v>0.1117421043688269</v>
+        <v>0.1100543785056089</v>
       </c>
       <c r="Y4">
-        <v>-1.393149139544706</v>
+        <v>-1.391461413681488</v>
       </c>
       <c r="Z4">
         <v>1.659990902148021</v>
@@ -910,10 +910,10 @@
         <v>-1.446260806027202</v>
       </c>
       <c r="AB4">
-        <v>0.1076825562641676</v>
+        <v>0.1056920924494648</v>
       </c>
       <c r="AC4">
-        <v>-1.553943362291369</v>
+        <v>-1.551952898476666</v>
       </c>
       <c r="AD4">
         <v>0.655</v>
